--- a/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/Table16.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/Table16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb59/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3729EA-C9CD-194A-9710-F3FC440AC2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4921AD7E-4219-8743-AA38-661D234AB9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Region of residence</t>
   </si>
@@ -68,9 +68,6 @@
     <t xml:space="preserve">Italy </t>
   </si>
   <si>
-    <t xml:space="preserve">Sain Francisco </t>
-  </si>
-  <si>
     <t xml:space="preserve">United States </t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Total licensed commercial fishermen for license year April 1, 1941 through March 81 1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco </t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -193,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -208,13 +208,7 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
@@ -222,28 +216,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -566,10 +560,10 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A40" sqref="A37:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36"/>
     <col min="2" max="2" width="18"/>
@@ -591,434 +585,504 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>269</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>37</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>21</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>61</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>210</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>128</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8">
         <v>21</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>22</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
         <v>480</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>440</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>206</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10">
-        <v>206</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="8">
+        <v>72</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10">
-        <v>72</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>38</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>100</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>1336</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>557</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8">
+        <v>417</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="10">
-        <v>417</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="8">
+        <v>65</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="10">
-        <v>65</v>
-      </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>39</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>93</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>1171</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>296</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>16</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="A23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8">
         <v>12</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>49</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>1754</v>
       </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12">
+        <v>828</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="14">
-        <v>828</v>
-      </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="8">
+        <v>484</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="10">
-        <v>484</v>
-      </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>226</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12">
         <v>53</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12">
+        <v>244</v>
+      </c>
+      <c r="D30" s="12">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="14">
-        <v>244</v>
-      </c>
-      <c r="D30" s="14">
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>853</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="14">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="12">
         <v>314</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="14">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="12">
         <v>271</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="10">
+      <c r="A34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8">
         <v>110</v>
       </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>29</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="12">
+        <v>84</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="8">
+        <v>271</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="12">
+        <v>115</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="14">
-        <v>84</v>
-      </c>
-      <c r="D36" s="12">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="10">
-        <v>271</v>
-      </c>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="14">
-        <v>115</v>
-      </c>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>29</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>30</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>33</v>
+      <c r="A41" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="10">
+      <c r="C41" s="15"/>
+      <c r="D41" s="8">
         <v>9344</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="19">
+    <row r="42" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="17">
         <f>SUM(D2:D40)-D41</f>
         <v>0</v>
       </c>
